--- a/springBatchDemo/src/main/resources/users.xlsx
+++ b/springBatchDemo/src/main/resources/users.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="16260" windowHeight="3195"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>id</t>
   </si>
@@ -35,6 +36,9 @@
   </si>
   <si>
     <t>rayan</t>
+  </si>
+  <si>
+    <t>sarvaji</t>
   </si>
 </sst>
 </file>
@@ -863,10 +867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,6 +931,20 @@
         <v>14000</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>15000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
